--- a/Bands Ranked.xlsx
+++ b/Bands Ranked.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\OneDrive\Desktop\Song List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{208A7DA8-7B29-4C94-BA8A-E877194D975E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{171C7470-D830-479C-8BAD-86987F6D80CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{C1368EFD-7DBA-4D82-A1D2-4507CAABA295}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{80813AC3-92CA-43C8-B0F4-C330F5B30791}"/>
+    <workbookView xWindow="6" yWindow="6" windowWidth="7500" windowHeight="6000" xr2:uid="{80813AC3-92CA-43C8-B0F4-C330F5B30791}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="344">
   <si>
     <t>PtH</t>
   </si>
@@ -904,6 +904,165 @@
   </si>
   <si>
     <t>Tornado of Souls</t>
+  </si>
+  <si>
+    <t>A Shattered Fortress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Endless Sacrifice </t>
+  </si>
+  <si>
+    <t>Panic Attack</t>
+  </si>
+  <si>
+    <t>Beyond This Life</t>
+  </si>
+  <si>
+    <t>The Gift of Music</t>
+  </si>
+  <si>
+    <t>Hollow Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paralyzed </t>
+  </si>
+  <si>
+    <t>Caught in a Web</t>
+  </si>
+  <si>
+    <t>Take the Time</t>
+  </si>
+  <si>
+    <t>Lady of the Snow</t>
+  </si>
+  <si>
+    <t>On the Breath of Pos</t>
+  </si>
+  <si>
+    <t>Through the Looking G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Raging Seasons </t>
+  </si>
+  <si>
+    <t>The Damnation Game</t>
+  </si>
+  <si>
+    <t>To Hell and Back</t>
+  </si>
+  <si>
+    <t>Eve of Seduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of Sin and Shadow </t>
+  </si>
+  <si>
+    <t>Church of the Machine</t>
+  </si>
+  <si>
+    <t>Songs I Forgot</t>
+  </si>
+  <si>
+    <t>Surfing with the Alien</t>
+  </si>
+  <si>
+    <t>Live</t>
+  </si>
+  <si>
+    <t>White, Discussion</t>
+  </si>
+  <si>
+    <t>YG</t>
+  </si>
+  <si>
+    <t>Far Beyond the Sun</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Kingdom of Solace</t>
+  </si>
+  <si>
+    <t>I Stay Away</t>
+  </si>
+  <si>
+    <t>Wild Flower</t>
+  </si>
+  <si>
+    <t>Nutshell</t>
+  </si>
+  <si>
+    <t>Angry Chair</t>
+  </si>
+  <si>
+    <t>Again</t>
+  </si>
+  <si>
+    <t>Frogs</t>
+  </si>
+  <si>
+    <t>Real Thing</t>
+  </si>
+  <si>
+    <t>Sea of Sorrow</t>
+  </si>
+  <si>
+    <t>Rotten Apple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Excuses </t>
+  </si>
+  <si>
+    <t>It Ain't Like That</t>
+  </si>
+  <si>
+    <t>Fire Woman</t>
+  </si>
+  <si>
+    <t>The Witch</t>
+  </si>
+  <si>
+    <t>Turn On Your Light</t>
+  </si>
+  <si>
+    <t>Here Come The Tears</t>
+  </si>
+  <si>
+    <t>Screaming For Veng</t>
+  </si>
+  <si>
+    <t>The Ripper</t>
+  </si>
+  <si>
+    <t>Breaking The Law</t>
+  </si>
+  <si>
+    <t>Hell Patrol</t>
+  </si>
+  <si>
+    <t>The Hellion</t>
+  </si>
+  <si>
+    <t>Sacrificed Sons</t>
+  </si>
+  <si>
+    <t>I Know Something</t>
+  </si>
+  <si>
+    <t>Sickman</t>
+  </si>
+  <si>
+    <t>Confusion</t>
+  </si>
+  <si>
+    <t>Sunshine</t>
+  </si>
+  <si>
+    <t>Junkhead</t>
+  </si>
+  <si>
+    <t>Thorns of Sorrow</t>
   </si>
 </sst>
 </file>
@@ -940,7 +1099,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1076,6 +1235,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC9900"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1092,7 +1299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1119,6 +1326,16 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,13 +1344,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FF00FFFF"/>
+      <color rgb="FF00FF00"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFCC66FF"/>
       <color rgb="FF996633"/>
       <color rgb="FFFF99FF"/>
       <color rgb="FFFF66FF"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF9900FF"/>
-      <color rgb="FFFF9900"/>
-      <color rgb="FF663300"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1444,10 +1664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66B3C9E-06BD-40BD-8030-B72FEE60CCD7}">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1486,9 +1706,12 @@
     <col min="35" max="35" width="18.62890625" customWidth="1"/>
     <col min="36" max="36" width="18.7890625" customWidth="1"/>
     <col min="37" max="37" width="18.3671875" customWidth="1"/>
+    <col min="38" max="38" width="18" customWidth="1"/>
+    <col min="39" max="39" width="19.26171875" customWidth="1"/>
+    <col min="40" max="40" width="19.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1594,8 +1817,20 @@
       <c r="AJ1" s="1" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1704,8 +1939,20 @@
       <c r="AJ2" s="22" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="AK2" t="s">
+        <v>310</v>
+      </c>
+      <c r="AL2" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="AM2" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="AN2" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1791,7 +2038,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1868,7 +2115,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1923,11 +2170,14 @@
       <c r="AA5" t="s">
         <v>196</v>
       </c>
+      <c r="AB5" s="26" t="s">
+        <v>318</v>
+      </c>
       <c r="AE5" s="23" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1976,17 +2226,20 @@
       <c r="Y6" t="s">
         <v>205</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="Z6" s="26" t="s">
         <v>201</v>
       </c>
       <c r="AA6" t="s">
         <v>197</v>
       </c>
+      <c r="AB6" t="s">
+        <v>329</v>
+      </c>
       <c r="AE6" s="23" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2026,8 +2279,14 @@
       <c r="Y7" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z7" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2064,8 +2323,11 @@
       <c r="Y8" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z8" s="27" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2099,8 +2361,11 @@
       <c r="X9" s="25" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z9" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2131,8 +2396,11 @@
       <c r="U10" s="18" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z10" s="27" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2163,14 +2431,20 @@
       <c r="U11" s="5" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z11" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>138</v>
       </c>
+      <c r="D12" s="31" t="s">
+        <v>330</v>
+      </c>
       <c r="E12" s="17" t="s">
         <v>93</v>
       </c>
@@ -2183,20 +2457,26 @@
       <c r="H12" t="s">
         <v>128</v>
       </c>
-      <c r="N12" t="s">
+      <c r="N12" s="26" t="s">
         <v>283</v>
       </c>
       <c r="U12" s="21" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>139</v>
       </c>
+      <c r="D13" s="33" t="s">
+        <v>331</v>
+      </c>
       <c r="E13" s="19" t="s">
         <v>233</v>
       </c>
@@ -2209,20 +2489,26 @@
       <c r="H13" t="s">
         <v>125</v>
       </c>
-      <c r="N13" t="s">
+      <c r="N13" s="27" t="s">
         <v>284</v>
       </c>
       <c r="U13" s="24" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>143</v>
       </c>
+      <c r="D14" s="33" t="s">
+        <v>332</v>
+      </c>
       <c r="E14" s="22" t="s">
         <v>234</v>
       </c>
@@ -2241,15 +2527,21 @@
       <c r="U14" s="24" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="C15" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="D15" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="26" t="s">
         <v>243</v>
       </c>
       <c r="F15" s="20" t="s">
@@ -2267,14 +2559,20 @@
       <c r="U15" s="23" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>146</v>
       </c>
+      <c r="D16" s="34" t="s">
+        <v>334</v>
+      </c>
       <c r="F16" s="22" t="s">
         <v>106</v>
       </c>
@@ -2287,18 +2585,24 @@
       <c r="N16" t="s">
         <v>287</v>
       </c>
-      <c r="U16" t="s">
+      <c r="U16" s="26" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z16" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="F17" t="s">
+      <c r="D17" s="34" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="28" t="s">
         <v>107</v>
       </c>
       <c r="G17" s="12" t="s">
@@ -2310,14 +2614,20 @@
       <c r="U17" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z17" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>174</v>
       </c>
+      <c r="D18" s="35" t="s">
+        <v>336</v>
+      </c>
       <c r="F18" t="s">
         <v>108</v>
       </c>
@@ -2330,8 +2640,11 @@
       <c r="U18" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z18" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2350,8 +2663,11 @@
       <c r="U19" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2370,8 +2686,11 @@
       <c r="U20" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z20" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2390,8 +2709,11 @@
       <c r="U21" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="Z21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2405,7 +2727,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2419,7 +2741,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2433,11 +2755,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="28" t="s">
         <v>227</v>
       </c>
       <c r="F25" t="s">
@@ -2447,11 +2769,11 @@
         <v>213</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="28" t="s">
         <v>228</v>
       </c>
       <c r="F26" t="s">
@@ -2461,59 +2783,169 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="29" t="s">
         <v>229</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="29" t="s">
         <v>231</v>
       </c>
       <c r="G28" s="23" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="26" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="27" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="27" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" s="28" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" s="30" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>293</v>
+      </c>
+      <c r="G34" s="30" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>296</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>294</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>295</v>
+      </c>
+      <c r="G37" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>297</v>
+      </c>
+      <c r="G38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G40" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>299</v>
+      </c>
+      <c r="G41" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
